--- a/data_raw/wos.xlsx
+++ b/data_raw/wos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ic_bibliometria\data_raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008F2F4-93A7-4E03-8180-4A96448AF785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,56 +27,56 @@
     <t>PROQUEST</t>
   </si>
   <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:88042514</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:121114563</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:84552731</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:85221505</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:68304083</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:160321596</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:67812757</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:103076203</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:161219081</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:67820433</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:85146723</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:122834947</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:121106503</t>
-  </si>
-  <si>
-    <t>https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:66834396</t>
-  </si>
-  <si>
     <t>links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:88042514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:121114563 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:84552731 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:85221505 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:68304083 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:160321596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:67812757 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:103076203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:161219081 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:67820433 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:85146723 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:122834947 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:121106503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-webofscience-com.ez87.periodicos.capes.gov.br/wos/pqdt/full-record/PQDT:66834396 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +86,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -123,11 +122,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -139,14 +138,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,187 +443,201 @@
     <col min="3" max="3" width="142.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>54</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D37C7B81-21F7-4301-AF19-69869931AE47}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{0EEF18A4-398B-43B4-9F0C-CAC988114ECB}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{31E3B23A-65C1-47A2-9636-70911515E00D}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{0469D3E7-BC51-495D-8327-10699A038418}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{67FF2B6C-D9EF-4226-8247-6FBEB1B14E8D}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{769CAEB9-F6A6-4A4F-BA79-2E79D8D001A4}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{6568D9D8-9198-42C3-96F1-A5E81FFA6178}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{302D34DB-A131-4C5B-B12E-678349406E1B}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{BC0CE8B7-04D6-4140-89D6-B5AABE3704E3}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{A21F4102-7F07-47AE-B58E-5A9FB2898360}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{D7EE07E2-3D32-41C6-BF22-FFB1F378BF03}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{B86BC94F-6C9A-4384-A32A-CD0713D24C88}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{22A8A534-0836-4FAB-9AFB-37B072E0287D}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{FA62DDD4-BE23-41C4-8792-AF9E6EF7B13A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -633,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
